--- a/Rassrotchka/FilesTemplates/Рассрочка_XX.xlsx
+++ b/Rassrotchka/FilesTemplates/Рассрочка_XX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="19035" windowHeight="12015"/>
+    <workbookView xWindow="122" yWindow="27" windowWidth="19032" windowHeight="12009" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Подробно" sheetId="1" r:id="rId1"/>
@@ -233,11 +233,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -250,10 +269,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -265,10 +282,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -280,8 +295,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -293,34 +325,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -339,7 +343,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -348,7 +352,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -366,9 +370,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -381,8 +383,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -394,7 +398,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -409,13 +413,13 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -424,86 +428,83 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -516,6 +517,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -824,175 +833,175 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="34" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="45.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="23"/>
+    <row r="3" spans="1:9" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="23"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="23"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="37"/>
-    </row>
-    <row r="13" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
-    </row>
-    <row r="14" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" s="35" customFormat="1" ht="14.95" x14ac:dyDescent="0.25">
+      <c r="B12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" s="35" customFormat="1" ht="14.95" x14ac:dyDescent="0.25">
+      <c r="B13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" s="35" customFormat="1" ht="14.95" x14ac:dyDescent="0.25">
+      <c r="B14" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I11"/>
@@ -1008,19 +1017,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
     <col min="3" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="74.05" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1030,15 +1039,15 @@
       <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1046,16 +1055,16 @@
         <v>13</v>
       </c>
       <c r="C2" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A2,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A2,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="7">
-        <f ca="1">C2+D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="E2" s="41">
+        <f>C2+D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1063,16 +1072,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A3,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A3,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="7">
-        <f ca="1">C3+D3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="E3" s="41">
+        <f>C3+D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="36.700000000000003" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1080,16 +1089,16 @@
         <v>15</v>
       </c>
       <c r="C4" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A4,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A4,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="7">
-        <f t="shared" ref="E4:E19" ca="1" si="0">C4+D4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="E4" s="41">
+        <f t="shared" ref="E4:E19" si="0">C4+D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1097,16 +1106,16 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A5,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A5,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="E5" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36.700000000000003" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1114,16 +1123,16 @@
         <v>17</v>
       </c>
       <c r="C6" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A6,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A6,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="E6" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1131,16 +1140,16 @@
         <v>18</v>
       </c>
       <c r="C7" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A7,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A7,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="E7" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1148,16 +1157,16 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A8,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A8,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="E8" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1165,16 +1174,16 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A9,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A9,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="E9" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="36.700000000000003" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>10</v>
       </c>
@@ -1182,16 +1191,16 @@
         <v>21</v>
       </c>
       <c r="C10" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A10,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A10,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="E10" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>11</v>
       </c>
@@ -1199,16 +1208,16 @@
         <v>22</v>
       </c>
       <c r="C11" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A11,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A11,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="E11" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>13</v>
       </c>
@@ -1216,16 +1225,16 @@
         <v>23</v>
       </c>
       <c r="C12" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A12,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A12,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="54" x14ac:dyDescent="0.25">
+      <c r="E12" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="55.05" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>20</v>
       </c>
@@ -1233,16 +1242,16 @@
         <v>24</v>
       </c>
       <c r="C13" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A13,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A13,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="E13" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="36.700000000000003" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>25</v>
       </c>
@@ -1250,16 +1259,16 @@
         <v>25</v>
       </c>
       <c r="C14" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A14,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A14,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="54" x14ac:dyDescent="0.25">
+      <c r="E14" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="55.05" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>28</v>
       </c>
@@ -1267,16 +1276,16 @@
         <v>26</v>
       </c>
       <c r="C15" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A15,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A15,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="E15" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="36.700000000000003" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>29</v>
       </c>
@@ -1284,16 +1293,16 @@
         <v>27</v>
       </c>
       <c r="C16" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A16,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A16,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="E16" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="36.700000000000003" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>33</v>
       </c>
@@ -1301,16 +1310,16 @@
         <v>28</v>
       </c>
       <c r="C17" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A17,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A17,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="E17" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="36.700000000000003" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>34</v>
       </c>
@@ -1318,16 +1327,16 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A18,Подробно!$I$3:$I$111)/1000</f>
+        <f>SUMIF(Подробно!$C$3:$C$1111,A18,Подробно!$I$3:$I$1111)/1000</f>
         <v>0</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="36.700000000000003" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>36</v>
       </c>
@@ -1335,29 +1344,27 @@
         <v>30</v>
       </c>
       <c r="C19" s="7">
-        <f ca="1">SUMIF(Подробно!$C$3:$C$1111,A19,Подробно!$I$3:$I$111)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>SUMIF(Подробно!$C$3:$C$1111,A19,Подробно!$I$3:$I$1111)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.05" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="12">
-        <f ca="1">((SUM(C2:C19))*-1)*-1</f>
+        <f>((SUM(C2:C19))*-1)*-1</f>
         <v>0</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="12">
-        <f ca="1">((SUM(E2:E19))*-1)*-1</f>
+      <c r="E20" s="42">
+        <f>((SUM(E2:E19))*-1)*-1</f>
         <v>0</v>
       </c>
       <c r="F20" s="13"/>
